--- a/medicine/Enfance/Louis_Aron/Louis_Aron.xlsx
+++ b/medicine/Enfance/Louis_Aron/Louis_Aron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Aron, né le 14 octobre 1888 à La Rochelle et mort le 18 juin 1987 à Paris 14e, contribue, en qualité de directeur de la maison de refuge pour l'enfance israélite[1] à sauver la vie de nombreuses jeunes filles juives durant la Shoah.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Aron, né le 14 octobre 1888 à La Rochelle et mort le 18 juin 1987 à Paris 14e, contribue, en qualité de directeur de la maison de refuge pour l'enfance israélite à sauver la vie de nombreuses jeunes filles juives durant la Shoah.
 </t>
         </is>
       </c>
@@ -511,17 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Aron[2] est né en 1888 à La Rochelle en Charente-Inférieure. Il fait une licence ès sciences. Lieutenant de réserve, il combat durant la Première Guerre mondiale.
-Commissaire des Éclaireurs de France
-De 1930 à 1939, Louis Aron est commissaire des éclaireurs de France.
-Directeur de la maison israélite de refuge pour l'enfance
-De 1939 à 1946, Louis Aron dirige la maison de refuge pour l'enfance israélite, avec l'aide de son épouse Yvonne[3]. Il dirige le refuge à Neuilly-sur-Seine en 1939 puis, dans la Creuse, d'abord à Crocq de 1939 à 1942 et ensuite au Château de Chaumont (Mainsat)[4],[5].
-Avec l'aide de Joseph Millner, la comptabilité des enfants est maquillée, en dépit des ordres reçus de l'UGIF[6]. Une centaine de jeunes filles de 5 ans à 20 ans sont protégées. Aucune n'est arrêtée durant la guerre[7].
-Après la Guerre
-Après la guerre, il devient correcteur d'imprimerie, employé à l'INSEE.
-Il meurt le 18 juin 1987 à 98 ans dans le quartier du Montparnasse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Aron est né en 1888 à La Rochelle en Charente-Inférieure. Il fait une licence ès sciences. Lieutenant de réserve, il combat durant la Première Guerre mondiale.
 </t>
         </is>
       </c>
@@ -547,12 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvre</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Louis Aron, Journal de Louis Aron, directeur de la Maison israélite de refuge pour l'enfance : Neuilly-sur-Seine, 1939, Crocq Creuse, 1939-1942, Chaumont Creuse, 1942-1944, Beate Klarsfeld Foundation, 1998 (lire en ligne)</t>
+          <t>Commissaire des Éclaireurs de France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1930 à 1939, Louis Aron est commissaire des éclaireurs de France.
+</t>
         </is>
       </c>
     </row>
@@ -577,13 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Croix de Guerre 1914-1918[5]
-Chevalier de la Légion d'honneur[5]</t>
+          <t>Directeur de la maison israélite de refuge pour l'enfance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1939 à 1946, Louis Aron dirige la maison de refuge pour l'enfance israélite, avec l'aide de son épouse Yvonne. Il dirige le refuge à Neuilly-sur-Seine en 1939 puis, dans la Creuse, d'abord à Crocq de 1939 à 1942 et ensuite au Château de Chaumont (Mainsat),.
+Avec l'aide de Joseph Millner, la comptabilité des enfants est maquillée, en dépit des ordres reçus de l'UGIF. Une centaine de jeunes filles de 5 ans à 20 ans sont protégées. Aucune n'est arrêtée durant la guerre.
+</t>
         </is>
       </c>
     </row>
@@ -608,12 +628,117 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Après la Guerre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la guerre, il devient correcteur d'imprimerie, employé à l'INSEE.
+Il meurt le 18 juin 1987 à 98 ans dans le quartier du Montparnasse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Aron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Aron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Louis Aron, Journal de Louis Aron, directeur de la Maison israélite de refuge pour l'enfance : Neuilly-sur-Seine, 1939, Crocq Creuse, 1939-1942, Chaumont Creuse, 1942-1944, Beate Klarsfeld Foundation, 1998 (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis_Aron</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Aron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Croix de Guerre 1914-1918
+Chevalier de la Légion d'honneur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Louis_Aron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Aron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Une rue de Crocq (Creuse) est nommée Louis Aron[7].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Une rue de Crocq (Creuse) est nommée Louis Aron.</t>
         </is>
       </c>
     </row>
